--- a/1. Suma de enteros base UNO/SU-MTDeterminista1C.xlsx
+++ b/1. Suma de enteros base UNO/SU-MTDeterminista1C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P2MT\Practica_MT_TAC\1. Suma de enteros base UNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\1. Suma de enteros base UNO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027403F-1856-481D-A9A5-C99D456D065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A4263-B0DA-43BB-948F-222D615E2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1628,16 +1628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1665,7 +1665,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>

--- a/1. Suma de enteros base UNO/SU-MTDeterminista1C.xlsx
+++ b/1. Suma de enteros base UNO/SU-MTDeterminista1C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\1. Suma de enteros base UNO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A4263-B0DA-43BB-948F-222D615E2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E6905-B9FA-4E13-AE4B-8059990CFD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
@@ -224,7 +224,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="1200"/>
-              <a:t>PALÍNDROMOS</a:t>
+              <a:t>SUMA UNO</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1200" baseline="0"/>
@@ -1628,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1. Suma de enteros base UNO/SU-MTDeterminista1C.xlsx
+++ b/1. Suma de enteros base UNO/SU-MTDeterminista1C.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\1. Suma de enteros base UNO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E6905-B9FA-4E13-AE4B-8059990CFD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43D92CD-E623-4BAC-9C5C-85E9D5C0F72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
@@ -319,10 +319,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$L$4</c:f>
+              <c:f>Hoja1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -388,10 +388,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$5:$L$5</c:f>
+              <c:f>Hoja1!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
@@ -454,10 +454,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$L$6</c:f>
+              <c:f>Hoja1!$C$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
@@ -517,10 +517,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$7:$L$7</c:f>
+              <c:f>Hoja1!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1629,7 +1629,7 @@
   <dimension ref="B2:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
